--- a/biology/Botanique/Haut-fer/Haut-fer.xlsx
+++ b/biology/Botanique/Haut-fer/Haut-fer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le haut-fer désigne, dans le massif des Vosges, une scierie traditionnelle dont la force motrice est hydraulique et constituée d'un banc, porteur de la grume (appelée tronce) qui avance en face d'une lame verticale à mouvement alternatif. 
 Cette lame ne scie qu'à la descente, aidée par la pesanteur.
@@ -512,9 +524,11 @@
           <t>Description et fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lame verticale alternative, fixée sur un châssis et dénommée « plumée », permet le sciage des tronces de bois ; le « plumard » (semelle de bois sur socle de ciment), amortit les secousses provoquées par la plumée lors du sciage[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lame verticale alternative, fixée sur un châssis et dénommée « plumée », permet le sciage des tronces de bois ; le « plumard » (semelle de bois sur socle de ciment), amortit les secousses provoquées par la plumée lors du sciage. 
 La roue à augets actionne le haut-fer par l'intermédiaire d'un jeu de poulies et courroies. La manivelle et le bois de bielle assurent le mouvement alternatif de la scie tendue dans la plumée.
 Une fois la grume (tronce) mise en place et fixée, le chariot, au rythme de la scie, avance progressivement grâce à la roue des minutes.
 </t>
@@ -545,12 +559,14 @@
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Haut-fer du Rupt de Bâmont, attraction majeure du musée du Bois à Saulxures-sur-Moselotte.
-Scierie du Lançoir, dans le défilé de Straiture, sur la commune de Ban-sur-Meurthe-Clefcy[2],[3].
+Scierie du Lançoir, dans le défilé de Straiture, sur la commune de Ban-sur-Meurthe-Clefcy,.
 Haut-fer de Brouaumont, à La Houssière.
-Scierie communale de Mandray[4].
+Scierie communale de Mandray.
 Scierie Demouge, à Lepuix-Gy.
 Scierie pédagogique à planches du moulin d'Eschviller à Volmunster (Moselle).
 Scierie Martin-Tuaillon, à Servance.
@@ -584,7 +600,9 @@
           <t>Littérature et cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Haut-fer est un roman de José Giovanni, paru en 1962 et adapté au cinéma par Robert Enrico en 1965 sous le titre Les Grandes Gueules.
 Stendhal décrit, dans le chapitre IV de son roman Le Rouge et le Noir, le fonctionnement de ce type de machine :
